--- a/SuppTable5_PhyloPlex-CostBreakdown.xlsx
+++ b/SuppTable5_PhyloPlex-CostBreakdown.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mb29/Papers/AmpliSeq_Treponema_paper_2024/Github/TP-Phylo-Plex_paper_2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{794F6E85-4866-3643-81F5-1BFCB95CC110}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EC546D-3479-5E47-B9F1-2651464EBFD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="15580" xr2:uid="{F2671BB7-C80F-C04D-A029-F3AA14541BA7}"/>
   </bookViews>
